--- a/Task1/Data.xlsx
+++ b/Task1/Data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahran\workspace\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahran\workspace\Tests\TestAutomationExcetises\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F1060-4970-4CA5-8ECC-118F2C4FA716}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11520125-B532-4F46-BEFE-D3F148ED3068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkout" sheetId="1" r:id="rId1"/>
+    <sheet name="MenuItems" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>size</t>
   </si>
@@ -36,13 +37,25 @@
     <t>M</t>
   </si>
   <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>enter the name of dress, size  in the checkout test</t>
-  </si>
-  <si>
     <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>actualCount</t>
+  </si>
+  <si>
+    <t>mainProduct</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DRESSES</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -93,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,42 +390,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04542232-E9E2-4DFE-A81F-0D342801ACA9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Task1/Data.xlsx
+++ b/Task1/Data.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahran\workspace\Tests\TestAutomationExcetises\Task1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11520125-B532-4F46-BEFE-D3F148ED3068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{072D323E-E3D4-4621-AA92-F1B397C558B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="29130" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkout" sheetId="1" r:id="rId1"/>
     <sheet name="MenuItems" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,36 +22,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>size</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ProductName</t>
   </si>
   <si>
+    <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>actualCount</t>
+  </si>
+  <si>
+    <t>mainProduct</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DRESSES</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>Faded Short Sleeve T-shirts</t>
-  </si>
-  <si>
-    <t>WOMEN</t>
-  </si>
-  <si>
-    <t>actualCount</t>
-  </si>
-  <si>
-    <t>mainProduct</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DRESSES</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -390,35 +389,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -441,26 +448,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
